--- a/data/google_data_example.xlsx
+++ b/data/google_data_example.xlsx
@@ -52,7 +52,7 @@
     <t>scattered clouds</t>
   </si>
   <si>
-    <t>good</t>
+    <t>normal</t>
   </si>
 </sst>
 </file>
